--- a/DateBase/orders/Dang Nguyen_2025-11-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-27.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081042310107.5740</v>
+        <v>081042310107.57414</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,93 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C13" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>4</v>
+      </c>
+      <c r="C19" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>688_山归来橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">829_白玉兰_magnolia flower
+white/purple_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +671,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081042310107.57414</v>
+        <v>081042310107.5741425226101010525100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-27.xlsx
@@ -610,6 +610,9 @@
         <v xml:space="preserve">829_白玉兰_magnolia flower
 white/purple_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -671,7 +674,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081042310107.5741425226101010525100</v>
+        <v>081042310107.5741425226101010525108</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -614,9 +614,175 @@
         <v>8</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>342_南天竹红_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>431_小米果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>844_荚米果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>424_鼠尾白色_veronica white_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>5</v>
+      </c>
+      <c r="C29" t="str">
+        <v>667_大丽花 安吉丽娜_undefined_undefined_5stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>6</v>
+      </c>
+      <c r="C32" t="str">
+        <v>126_绣球苹果绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
+      </c>
+      <c r="F32" t="str">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>100_绣球白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F33" t="str">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>7</v>
+      </c>
+      <c r="C36" t="str">
+        <v>136_爱慕_adore_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F37" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -674,7 +840,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081042310107.5741425226101010525108</v>
+        <v>081042310107.57414252261010105251085171051020108201090801151040519150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-27.xlsx
@@ -779,6 +779,9 @@
       <c r="A41" t="str">
         <v>8</v>
       </c>
+      <c r="C41" t="str">
+        <v>780_贝壳草_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-11-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-27.xlsx
@@ -782,6 +782,9 @@
       <c r="C41" t="str">
         <v>780_贝壳草_undefined_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -843,7 +846,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081042310107.57414252261010105251085171051020108201090801151040519150</v>
+        <v>081042310107.574142522610101052510851710510201082010908011510405191515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-27.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-27.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -786,9 +786,87 @@
         <v>15</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>745_海芋红_Calla Lily_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>535_雪果白_snow berry white_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>447_黄金球_craspedia_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>9</v>
+      </c>
+      <c r="C46" t="str">
+        <v>647_海棠果红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>10</v>
+      </c>
+      <c r="C48" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>798_朱玉大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>75_爱心_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L50"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -846,7 +924,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>081042310107.574142522610101052510851710510201082010908011510405191515</v>
+        <v>081042310107.57414252261010105251085171051020108201090801151040519151522018556101010</v>
       </c>
     </row>
   </sheetData>
